--- a/GameBook.xlsx
+++ b/GameBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimothéeBourguignon\Documents\Amazing.Articles\Gamebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925E92F9-D052-4E20-A12F-A8953A5F8170}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD48C1C-002F-4058-B66E-9B3356EFB0A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>Focus on yourself or on the team?</t>
   </si>
@@ -901,6 +901,33 @@
   </si>
   <si>
     <t>With whom do you chose to talk? What do you see? Depending on what you chose, you get new tokens…</t>
+  </si>
+  <si>
+    <t>Sehr kurze Auswirkungen (1-2 Tage tops), versuch mal weiter zu branchen (Tag 3 -&gt; 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommunikationstechnik? Just listen, powerful questions, </t>
+  </si>
+  <si>
+    <t>Mehr Technische Dinge?</t>
+  </si>
+  <si>
+    <t>Sarcasmus</t>
+  </si>
+  <si>
+    <t>In Lernen investieren und danach ernten (entweder hast eine Coole Idee oder dauert was weniger lang, neue Feature von X)</t>
+  </si>
+  <si>
+    <t>1 Mal durchspielen und dann explore</t>
+  </si>
+  <si>
+    <t>Rollout Deployment, !CD?</t>
+  </si>
+  <si>
+    <t>Token mit CI/CD</t>
+  </si>
+  <si>
+    <t>Investierst du nochmal 2 Std um Fancy reports zu bekommen? Dann diminishing returns, es bringt nichts mehr…</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1382,13 +1409,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
@@ -1810,6 +1837,9 @@
       <c r="B25" s="16" t="s">
         <v>3</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
@@ -1849,6 +1879,46 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
